--- a/public/data_source/faculty.xlsx
+++ b/public/data_source/faculty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\elhawy\projects\seu_public_data\public\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B10F4B-C37A-4535-A00D-52AD14DBBD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64627F87-5D7D-454A-AFBE-F8880A7BA69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>arabic_title</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>الحوسبة والمعلوماتية</t>
+  </si>
+  <si>
+    <t>english_title</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -541,6 +544,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010034A83DF2E6634443A349C17868A69B47" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75be40817d16b9a669dd65bc569c5e8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="39fd7eea-bd78-4e0b-bb05-937733995018" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f855aa50b178639402115d648588c2e" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -697,25 +718,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD1FAF45-6BBF-47B7-8C4A-CABAD5275E2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24CB9857-AD24-4A7A-99AC-740EBAF5D222}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C50796-8F01-4863-955D-6302365E5BDC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -732,22 +753,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24CB9857-AD24-4A7A-99AC-740EBAF5D222}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD1FAF45-6BBF-47B7-8C4A-CABAD5275E2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>